--- a/收尾工作.xlsx
+++ b/收尾工作.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -18,9 +18,106 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗格朗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个单开、1个三开双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tplink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个1308GI，二个1300M，一个POE交换机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐厅灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发吊灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买2个4000K6W筒灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜前灯600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴巾架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双层毛巾架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房检修口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格力挂机开机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日立中央空调调试、地漏整改安装、风口安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TATA木门固定器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踢脚线补缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补漆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +125,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,17 +163,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +257,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D11" totalsRowShown="0">
+  <autoFilter ref="A1:D11"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="No"/>
+    <tableColumn id="3" name="品牌"/>
+    <tableColumn id="2" name="内容"/>
+    <tableColumn id="4" name="是否完成"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="F1:I6" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="F1:I6"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="No"/>
+    <tableColumn id="2" name="品牌"/>
+    <tableColumn id="3" name="内容"/>
+    <tableColumn id="4" name="是否完成"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,12 +548,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.25" customWidth="1"/>
+    <col min="9" max="9" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/收尾工作.xlsx
+++ b/收尾工作.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -209,6 +210,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -232,20 +247,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -273,7 +274,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="F1:I6" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="F1:I6" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="F1:I6"/>
   <tableColumns count="4">
     <tableColumn id="1" name="No"/>
@@ -548,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -560,9 +561,10 @@
     <col min="3" max="3" width="38.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.25" customWidth="1"/>
     <col min="9" max="9" width="10.25" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -601,8 +603,12 @@
       <c r="H2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <f>200*SQRT(2)</f>
+        <v>282.84271247461902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -613,7 +619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -624,7 +630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -632,7 +638,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -640,27 +646,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>17</v>
       </c>
@@ -674,4 +680,18 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>